--- a/RoadTo100h-29.12-Claudiu-1.xlsx
+++ b/RoadTo100h-29.12-Claudiu-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive\Documents\GitHub\RoadTo100H\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C584CF-46D2-4A62-86F5-F35838CD5E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47A0A0B-B6D2-4809-8A78-4D1A268145D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="942" xr2:uid="{B6BD9E57-A471-4DBF-AC74-9C3E18C271B1}"/>
   </bookViews>
@@ -2199,6 +2199,9 @@
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2365,6 +2368,9 @@
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13815,7 +13821,7 @@
   <dimension ref="B1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13925,7 +13931,9 @@
       <c r="E4" s="5">
         <v>44895</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>11</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -14300,12 +14308,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100203A957C3B1F9B49941C06D366F98E21" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd489f5cf6da5d269c3e1670eeb21816">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="af0ea5b6-ad95-4da8-a3ca-1fd3d287f2ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e1dc80edfb05182be65ac203f6fe936f" ns3:_="">
     <xsd:import namespace="af0ea5b6-ad95-4da8-a3ca-1fd3d287f2ea"/>
@@ -14437,6 +14439,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -14447,16 +14455,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92BD6FC7-60B5-47A7-B02A-F44FFD323407}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D15B6907-AC49-478A-AA46-291275C457BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14475,6 +14473,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92BD6FC7-60B5-47A7-B02A-F44FFD323407}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6478231-01EA-4B84-8AAD-A2AFD113185C}">
   <ds:schemaRefs>
